--- a/carbon_credits_changes.xlsx
+++ b/carbon_credits_changes.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Uses Carbon Credits</t>
+          <t>Uses CC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>No Carbon Credits</t>
+          <t>No CC</t>
         </is>
       </c>
     </row>
